--- a/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched/ifoCAst_errors_filtered_first_GVA.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_GVA_matched/ifoCAst_errors_filtered_first_GVA.xlsx
@@ -767,6 +767,9 @@
       <c r="C23">
         <v>0.2280757452360053</v>
       </c>
+      <c r="D23">
+        <v>0.5311946523564907</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
@@ -774,6 +777,9 @@
       </c>
       <c r="B24">
         <v>-0.0212972287639947</v>
+      </c>
+      <c r="C24">
+        <v>-0.02418658464350926</v>
       </c>
     </row>
   </sheetData>
